--- a/materialedata.xlsx
+++ b/materialedata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mbeher-my.sharepoint.com/personal/ki_midtjydskbeton_dk/Documents/Dokumenter/opgaver/05 EPD/12 online værktøj/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mbeher-my.sharepoint.com/personal/ki_midtjydskbeton_dk/Documents/Dokumenter/opgaver/05 EPD/12 online værktøj/Online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{90829354-3EFB-46EF-81D9-C8FF2DE2E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F03CE90-68AA-42DD-A13C-5882156B2C9D}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{90829354-3EFB-46EF-81D9-C8FF2DE2E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{755A8544-812C-4541-91EB-7D3BB8D0FD4B}"/>
   <bookViews>
     <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="12645" xr2:uid="{64266A35-645A-4991-9F4E-61CF226D1B01}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>SUM</t>
-  </si>
-  <si>
     <t>C25 passiv</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Transport</t>
+  </si>
+  <si>
+    <t>dato</t>
   </si>
 </sst>
 </file>
@@ -143,8 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,9 +165,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92ABC348-C495-403D-BB42-C8D8F8B9A94E}" name="Tabel1" displayName="Tabel1" ref="A4:K16" totalsRowShown="0">
-  <autoFilter ref="A4:K16" xr:uid="{92ABC348-C495-403D-BB42-C8D8F8B9A94E}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92ABC348-C495-403D-BB42-C8D8F8B9A94E}" name="Tabel1" displayName="Tabel1" ref="A4:L16" totalsRowShown="0">
+  <autoFilter ref="A4:L16" xr:uid="{92ABC348-C495-403D-BB42-C8D8F8B9A94E}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{262F34D3-E6A0-41DA-AFCB-4A1A9496FE70}" name="Materiale"/>
     <tableColumn id="11" xr3:uid="{606B558A-DE0F-4383-B092-3580D7A94529}" name="Densitet"/>
     <tableColumn id="2" xr3:uid="{99CFB4D9-84F0-479D-8AF3-FB062F51A012}" name="A1"/>
@@ -177,6 +179,7 @@
     <tableColumn id="8" xr3:uid="{45D8E332-28CF-47DD-8EF6-C530603E829F}" name="C3"/>
     <tableColumn id="9" xr3:uid="{46B7FA86-6B7D-491E-A1C7-7C1DA1EA302A}" name="C4"/>
     <tableColumn id="10" xr3:uid="{741A5B0C-6E3A-4405-8E05-241612CE2551}" name="D"/>
+    <tableColumn id="12" xr3:uid="{FD1312C0-4AFC-4555-A28C-45819A459928}" name="dato"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -502,7 +505,7 @@
   <dimension ref="A4:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,10 +516,10 @@
   <sheetData>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -540,53 +543,56 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
         <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>2401</v>
+        <v>2365.982</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
+        <v>6.9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.9499999999999998E-10</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>10.3</v>
       </c>
       <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
+        <v>3.64</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.32900000000000001</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>-47.2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>46054</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2402</v>
@@ -621,7 +627,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>2403</v>
@@ -656,7 +662,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>2404</v>
@@ -691,7 +697,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>2405</v>
@@ -726,7 +732,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>2406</v>
@@ -761,7 +767,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>2407</v>
@@ -796,7 +802,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>2408</v>
@@ -831,7 +837,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>2409</v>
@@ -866,7 +872,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>2410</v>
@@ -901,7 +907,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>60</v>
@@ -936,7 +942,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16">
         <v>2</v>

--- a/materialedata.xlsx
+++ b/materialedata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mbeher-my.sharepoint.com/personal/ki_midtjydskbeton_dk/Documents/Dokumenter/opgaver/05 EPD/12 online værktøj/Online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{90829354-3EFB-46EF-81D9-C8FF2DE2E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{755A8544-812C-4541-91EB-7D3BB8D0FD4B}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{90829354-3EFB-46EF-81D9-C8FF2DE2E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5440D4A4-A9D0-42C4-A0FA-AC0AF7ABAB85}"/>
   <bookViews>
     <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="12645" xr2:uid="{64266A35-645A-4991-9F4E-61CF226D1B01}"/>
   </bookViews>
@@ -101,13 +101,13 @@
     <t>Materiale</t>
   </si>
   <si>
-    <t>Isolering</t>
-  </si>
-  <si>
     <t>Transport</t>
   </si>
   <si>
     <t>dato</t>
+  </si>
+  <si>
+    <t>Rockwool isolering</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A4:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
         <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -594,140 +594,53 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>2402</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="I6">
-        <v>16</v>
-      </c>
-      <c r="J6">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>18</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>2403</v>
-      </c>
-      <c r="C7">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <v>22</v>
-      </c>
-      <c r="G7">
-        <v>23</v>
-      </c>
-      <c r="H7">
-        <v>24</v>
-      </c>
-      <c r="I7">
-        <v>25</v>
-      </c>
-      <c r="J7">
-        <v>26</v>
-      </c>
-      <c r="K7">
-        <v>27</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>2404</v>
-      </c>
-      <c r="C8">
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <v>29</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>31</v>
-      </c>
-      <c r="G8">
-        <v>32</v>
-      </c>
-      <c r="H8">
-        <v>33</v>
-      </c>
-      <c r="I8">
-        <v>34</v>
-      </c>
-      <c r="J8">
-        <v>35</v>
-      </c>
-      <c r="K8">
-        <v>36</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2405</v>
+        <v>2552.442</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>224</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>38.5</v>
       </c>
       <c r="E9">
-        <v>39</v>
+        <v>6.9</v>
       </c>
       <c r="F9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>41</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H9">
-        <v>42</v>
+        <v>11.1</v>
       </c>
       <c r="I9">
-        <v>43</v>
-      </c>
-      <c r="J9">
-        <v>44</v>
+        <v>1.78</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.35499999999999998</v>
       </c>
       <c r="K9">
-        <v>45</v>
+        <v>-9.8699999999999992</v>
+      </c>
+      <c r="L9" s="2">
+        <v>46054</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -735,214 +648,100 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>2406</v>
+        <v>2552.442</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="D10">
-        <v>47</v>
+        <v>38.5</v>
       </c>
       <c r="E10">
-        <v>48</v>
+        <v>6.9</v>
       </c>
       <c r="F10">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H10">
-        <v>51</v>
+        <v>11.1</v>
       </c>
       <c r="I10">
-        <v>52</v>
-      </c>
-      <c r="J10">
-        <v>53</v>
+        <v>1.78</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.35499999999999998</v>
       </c>
       <c r="K10">
-        <v>54</v>
+        <v>-9.8699999999999992</v>
+      </c>
+      <c r="L10" s="2">
+        <v>46054</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>2407</v>
-      </c>
-      <c r="C11">
-        <v>55</v>
-      </c>
-      <c r="D11">
-        <v>56</v>
-      </c>
-      <c r="E11">
-        <v>57</v>
-      </c>
-      <c r="F11">
-        <v>58</v>
-      </c>
-      <c r="G11">
-        <v>59</v>
-      </c>
-      <c r="H11">
-        <v>60</v>
-      </c>
-      <c r="I11">
-        <v>61</v>
-      </c>
-      <c r="J11">
-        <v>62</v>
-      </c>
-      <c r="K11">
-        <v>63</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>2408</v>
-      </c>
-      <c r="C12">
-        <v>64</v>
-      </c>
-      <c r="D12">
-        <v>65</v>
-      </c>
-      <c r="E12">
-        <v>66</v>
-      </c>
-      <c r="F12">
-        <v>67</v>
-      </c>
-      <c r="G12">
-        <v>68</v>
-      </c>
-      <c r="H12">
-        <v>69</v>
-      </c>
-      <c r="I12">
-        <v>70</v>
-      </c>
-      <c r="J12">
-        <v>71</v>
-      </c>
-      <c r="K12">
-        <v>72</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>2409</v>
-      </c>
-      <c r="C13">
-        <v>73</v>
-      </c>
-      <c r="D13">
-        <v>74</v>
-      </c>
-      <c r="E13">
-        <v>75</v>
-      </c>
-      <c r="F13">
-        <v>76</v>
-      </c>
-      <c r="G13">
-        <v>77</v>
-      </c>
-      <c r="H13">
-        <v>78</v>
-      </c>
-      <c r="I13">
-        <v>79</v>
-      </c>
-      <c r="J13">
-        <v>80</v>
-      </c>
-      <c r="K13">
-        <v>81</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>2410</v>
-      </c>
-      <c r="C14">
-        <v>82</v>
-      </c>
-      <c r="D14">
-        <v>83</v>
-      </c>
-      <c r="E14">
-        <v>84</v>
-      </c>
-      <c r="F14">
-        <v>85</v>
-      </c>
-      <c r="G14">
-        <v>86</v>
-      </c>
-      <c r="H14">
-        <v>87</v>
-      </c>
-      <c r="I14">
-        <v>88</v>
-      </c>
-      <c r="J14">
-        <v>89</v>
-      </c>
-      <c r="K14">
-        <v>90</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>60</v>
       </c>
-      <c r="C15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D15">
-        <v>1.52</v>
+      <c r="C15" s="1">
+        <v>0.436</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8.3400000000000002E-3</v>
       </c>
       <c r="E15">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.5</v>
-      </c>
-      <c r="G15">
-        <v>1.6</v>
-      </c>
-      <c r="H15">
-        <v>1.7</v>
-      </c>
-      <c r="I15">
-        <v>1.8</v>
-      </c>
-      <c r="J15">
-        <v>1.25</v>
-      </c>
-      <c r="K15">
-        <v>1.26</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>8.3300000000000006E-3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="L15" s="2">
+        <v>46054</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16">
         <v>2</v>
